--- a/predictions/multiple/RandomForestRegressor/Incidencia.xlsx
+++ b/predictions/multiple/RandomForestRegressor/Incidencia.xlsx
@@ -462,10 +462,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.343516668747105</v>
+        <v>1.331539913087548</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7811272666855806</v>
+        <v>0.7830784038083457</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -480,10 +480,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.787968759800937</v>
+        <v>6.786723010756039</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9030284364835933</v>
+        <v>0.9030462330051902</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -498,10 +498,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.623081365982387</v>
+        <v>3.440945007635638</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8210344615080802</v>
+        <v>0.8300312595807189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -516,10 +516,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.826703257165673</v>
+        <v>2.830072330464608</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9981433043259776</v>
+        <v>0.9981410913792159</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -534,10 +534,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.113950971101806</v>
+        <v>2.099523942233825</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9769648714277162</v>
+        <v>0.9771220786995181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -552,10 +552,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.796203545088738</v>
+        <v>1.844140655767965</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9989929248022413</v>
+        <v>0.9989660479622812</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.23419561202552</v>
+        <v>2.21336917891114</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9974408333137993</v>
+        <v>0.9974646890198673</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -588,10 +588,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>15.59197591581493</v>
+        <v>15.41221210973624</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8136087021298596</v>
+        <v>0.8157576542130331</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -606,10 +606,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.51142569706489</v>
+        <v>1.558079385872139</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9954944868110271</v>
+        <v>0.9953554136097157</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>

--- a/predictions/multiple/RandomForestRegressor/Incidencia.xlsx
+++ b/predictions/multiple/RandomForestRegressor/Incidencia.xlsx
@@ -462,10 +462,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.331539913087548</v>
+        <v>1.339722156331853</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7830784038083457</v>
+        <v>0.7817454319255371</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -480,10 +480,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.786723010756039</v>
+        <v>6.876393158390012</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9030462330051902</v>
+        <v>0.9017652232179459</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -498,10 +498,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.440945007635638</v>
+        <v>4.22508622341286</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8300312595807189</v>
+        <v>0.7912978609182165</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -516,10 +516,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.830072330464608</v>
+        <v>3.087154738082091</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9981410913792159</v>
+        <v>0.997972229015301</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -534,10 +534,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.099523942233825</v>
+        <v>2.136267898757287</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9771220786995181</v>
+        <v>0.9767216901501417</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -552,10 +552,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.844140655767965</v>
+        <v>1.772567729512532</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9989660479622812</v>
+        <v>0.999006176665434</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.21336917891114</v>
+        <v>2.21468910484377</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9974646890198673</v>
+        <v>0.9974631771063818</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -588,10 +588,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>15.41221210973624</v>
+        <v>15.15625224194849</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8157576542130331</v>
+        <v>0.8188174775617363</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -606,10 +606,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.558079385872139</v>
+        <v>1.586595234740817</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9953554136097157</v>
+        <v>0.9952704087474706</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>

--- a/predictions/multiple/RandomForestRegressor/Incidencia.xlsx
+++ b/predictions/multiple/RandomForestRegressor/Incidencia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,6 +451,11 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>MAE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Tipo</t>
         </is>
       </c>
@@ -462,12 +467,15 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.339722156331853</v>
+        <v>1.327087135759158</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7817454319255371</v>
-      </c>
-      <c r="D2" t="inlineStr">
+        <v>0.7838038071973591</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9503225238534604</v>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>multiple</t>
         </is>
@@ -480,12 +488,15 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.876393158390012</v>
+        <v>6.825308633341774</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9017652232179459</v>
-      </c>
-      <c r="D3" t="inlineStr">
+        <v>0.9024950065214221</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.950878830649375</v>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>multiple</t>
         </is>
@@ -498,12 +509,15 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.22508622341286</v>
+        <v>4.1929622691235</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7912978609182165</v>
-      </c>
-      <c r="D4" t="inlineStr">
+        <v>0.7928846540915259</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.623828393580852</v>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>multiple</t>
         </is>
@@ -516,12 +530,15 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.087154738082091</v>
+        <v>2.978825768303484</v>
       </c>
       <c r="C5" t="n">
-        <v>0.997972229015301</v>
-      </c>
-      <c r="D5" t="inlineStr">
+        <v>0.9980433839655243</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.270707098373362</v>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>multiple</t>
         </is>
@@ -534,12 +551,15 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.136267898757287</v>
+        <v>2.109471422953313</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9767216901501417</v>
-      </c>
-      <c r="D6" t="inlineStr">
+        <v>0.9770136838027224</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.159455959981469</v>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>multiple</t>
         </is>
@@ -552,12 +572,15 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.772567729512532</v>
+        <v>1.797825224332745</v>
       </c>
       <c r="C7" t="n">
-        <v>0.999006176665434</v>
-      </c>
-      <c r="D7" t="inlineStr">
+        <v>0.9989920155773655</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.051486986069193</v>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>multiple</t>
         </is>
@@ -570,12 +593,15 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.21468910484377</v>
+        <v>2.27808364023073</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9974631771063818</v>
-      </c>
-      <c r="D8" t="inlineStr">
+        <v>0.9973905616280521</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.246247103210239</v>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>multiple</t>
         </is>
@@ -588,12 +614,15 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>15.15625224194849</v>
+        <v>15.83496996529479</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8188174775617363</v>
-      </c>
-      <c r="D9" t="inlineStr">
+        <v>0.8107038761795236</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3.307229920429935</v>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>multiple</t>
         </is>
@@ -606,12 +635,15 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.586595234740817</v>
+        <v>1.562186803622715</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9952704087474706</v>
-      </c>
-      <c r="D10" t="inlineStr">
+        <v>0.9953431695246219</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.005006491178466</v>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>multiple</t>
         </is>

--- a/predictions/multiple/RandomForestRegressor/Incidencia.xlsx
+++ b/predictions/multiple/RandomForestRegressor/Incidencia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>Tipo</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Modelo</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -467,17 +472,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.327087135759158</v>
+        <v>1.332598112885935</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7838038071973591</v>
+        <v>0.7829060121382954</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9503225238534604</v>
+        <v>0.9583714877187218</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>multiple</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>MultiOutputRegressor(estimator=GridSearchCV(cv=5,
+                                            estimator=Pipeline(steps=[('model',
+                                                                       RandomForestRegressor())]),
+                                            param_grid={'model__max_depth': [3,
+                                                                             5,
+                                                                             7],
+                                                        'model__n_estimators': [50,
+                                                                                100,
+                                                                                150]},
+                                            scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
     </row>
@@ -488,17 +507,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.825308633341774</v>
+        <v>6.90266466986186</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9024950065214221</v>
+        <v>0.901389913661654</v>
       </c>
       <c r="D3" t="n">
-        <v>1.950878830649375</v>
+        <v>1.983252460510221</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>multiple</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>MultiOutputRegressor(estimator=GridSearchCV(cv=5,
+                                            estimator=Pipeline(steps=[('model',
+                                                                       RandomForestRegressor())]),
+                                            param_grid={'model__max_depth': [3,
+                                                                             5,
+                                                                             7],
+                                                        'model__n_estimators': [50,
+                                                                                100,
+                                                                                150]},
+                                            scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
     </row>
@@ -509,17 +542,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.1929622691235</v>
+        <v>3.377229054509587</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7928846540915259</v>
+        <v>0.8331785694834976</v>
       </c>
       <c r="D4" t="n">
-        <v>1.623828393580852</v>
+        <v>1.481931750261225</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>multiple</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>MultiOutputRegressor(estimator=GridSearchCV(cv=5,
+                                            estimator=Pipeline(steps=[('model',
+                                                                       RandomForestRegressor())]),
+                                            param_grid={'model__max_depth': [3,
+                                                                             5,
+                                                                             7],
+                                                        'model__n_estimators': [50,
+                                                                                100,
+                                                                                150]},
+                                            scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
     </row>
@@ -530,17 +577,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.978825768303484</v>
+        <v>3.095584561444309</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9980433839655243</v>
+        <v>0.9979666919584735</v>
       </c>
       <c r="D5" t="n">
-        <v>1.270707098373362</v>
+        <v>1.291599192029326</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>multiple</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>MultiOutputRegressor(estimator=GridSearchCV(cv=5,
+                                            estimator=Pipeline(steps=[('model',
+                                                                       RandomForestRegressor())]),
+                                            param_grid={'model__max_depth': [3,
+                                                                             5,
+                                                                             7],
+                                                        'model__n_estimators': [50,
+                                                                                100,
+                                                                                150]},
+                                            scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
     </row>
@@ -551,17 +612,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.109471422953313</v>
+        <v>2.127566867576145</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9770136838027224</v>
+        <v>0.9768165028372422</v>
       </c>
       <c r="D6" t="n">
-        <v>1.159455959981469</v>
+        <v>1.162564383981743</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>multiple</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>MultiOutputRegressor(estimator=GridSearchCV(cv=5,
+                                            estimator=Pipeline(steps=[('model',
+                                                                       RandomForestRegressor())]),
+                                            param_grid={'model__max_depth': [3,
+                                                                             5,
+                                                                             7],
+                                                        'model__n_estimators': [50,
+                                                                                100,
+                                                                                150]},
+                                            scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
     </row>
@@ -572,17 +647,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.797825224332745</v>
+        <v>1.817672486595947</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9989920155773655</v>
+        <v>0.9989808878376261</v>
       </c>
       <c r="D7" t="n">
-        <v>1.051486986069193</v>
+        <v>1.065162419437801</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>multiple</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>MultiOutputRegressor(estimator=GridSearchCV(cv=5,
+                                            estimator=Pipeline(steps=[('model',
+                                                                       RandomForestRegressor())]),
+                                            param_grid={'model__max_depth': [3,
+                                                                             5,
+                                                                             7],
+                                                        'model__n_estimators': [50,
+                                                                                100,
+                                                                                150]},
+                                            scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
     </row>
@@ -593,17 +682,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.27808364023073</v>
+        <v>2.273250848686807</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9973905616280521</v>
+        <v>0.9973960973649652</v>
       </c>
       <c r="D8" t="n">
-        <v>1.246247103210239</v>
+        <v>1.248790469195605</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>multiple</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>MultiOutputRegressor(estimator=GridSearchCV(cv=5,
+                                            estimator=Pipeline(steps=[('model',
+                                                                       RandomForestRegressor())]),
+                                            param_grid={'model__max_depth': [3,
+                                                                             5,
+                                                                             7],
+                                                        'model__n_estimators': [50,
+                                                                                100,
+                                                                                150]},
+                                            scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
     </row>
@@ -614,17 +717,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>15.83496996529479</v>
+        <v>15.49277267495131</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8107038761795236</v>
+        <v>0.8147946083240025</v>
       </c>
       <c r="D9" t="n">
-        <v>3.307229920429935</v>
+        <v>3.264842200283293</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>multiple</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>MultiOutputRegressor(estimator=GridSearchCV(cv=5,
+                                            estimator=Pipeline(steps=[('model',
+                                                                       RandomForestRegressor())]),
+                                            param_grid={'model__max_depth': [3,
+                                                                             5,
+                                                                             7],
+                                                        'model__n_estimators': [50,
+                                                                                100,
+                                                                                150]},
+                                            scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
     </row>
@@ -635,17 +752,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.562186803622715</v>
+        <v>1.535623997710418</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9953431695246219</v>
+        <v>0.9954223524263063</v>
       </c>
       <c r="D10" t="n">
-        <v>1.005006491178466</v>
+        <v>1.001821233815439</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>multiple</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>MultiOutputRegressor(estimator=GridSearchCV(cv=5,
+                                            estimator=Pipeline(steps=[('model',
+                                                                       RandomForestRegressor())]),
+                                            param_grid={'model__max_depth': [3,
+                                                                             5,
+                                                                             7],
+                                                        'model__n_estimators': [50,
+                                                                                100,
+                                                                                150]},
+                                            scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
     </row>

--- a/predictions/multiple/RandomForestRegressor/Incidencia.xlsx
+++ b/predictions/multiple/RandomForestRegressor/Incidencia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,16 @@
           <t>Modelo</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Elapsed Time</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>CPU</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -472,13 +482,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.332598112885935</v>
+        <v>1.330325824511135</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7829060121382954</v>
+        <v>0.7832761913694432</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9583714877187218</v>
+        <v>0.9555549925342113</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -499,6 +509,12 @@
                                             scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
+      <c r="G2" t="n">
+        <v>1.127317944850074</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.985</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -507,13 +523,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.90266466986186</v>
+        <v>6.848323667209031</v>
       </c>
       <c r="C3" t="n">
-        <v>0.901389913661654</v>
+        <v>0.9021662183526097</v>
       </c>
       <c r="D3" t="n">
-        <v>1.983252460510221</v>
+        <v>1.970736775091027</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -534,6 +550,12 @@
                                             scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
+      <c r="G3" t="n">
+        <v>1.127317944850074</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.985</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -542,13 +564,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.377229054509587</v>
+        <v>3.480567636655565</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8331785694834976</v>
+        <v>0.8280740622608915</v>
       </c>
       <c r="D4" t="n">
-        <v>1.481931750261225</v>
+        <v>1.510404694356846</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -569,6 +591,12 @@
                                             scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
+      <c r="G4" t="n">
+        <v>1.127317944850074</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.985</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -577,13 +605,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.095584561444309</v>
+        <v>2.955423048646301</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9979666919584735</v>
+        <v>0.9980587558402471</v>
       </c>
       <c r="D5" t="n">
-        <v>1.291599192029326</v>
+        <v>1.265663291807137</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -604,6 +632,12 @@
                                             scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
+      <c r="G5" t="n">
+        <v>1.127317944850074</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.985</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -612,13 +646,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.127566867576145</v>
+        <v>2.112808609028797</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9768165028372422</v>
+        <v>0.9769773194256061</v>
       </c>
       <c r="D6" t="n">
-        <v>1.162564383981743</v>
+        <v>1.154332099098965</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -639,6 +673,12 @@
                                             scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
+      <c r="G6" t="n">
+        <v>1.127317944850074</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.985</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -647,13 +687,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.817672486595947</v>
+        <v>1.816420092496004</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9989808878376261</v>
+        <v>0.9989815900158616</v>
       </c>
       <c r="D7" t="n">
-        <v>1.065162419437801</v>
+        <v>1.066839266934659</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -674,6 +714,12 @@
                                             scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
+      <c r="G7" t="n">
+        <v>1.127317944850074</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.985</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -682,13 +728,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.273250848686807</v>
+        <v>2.228590673907531</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9973960973649652</v>
+        <v>0.9974472535085364</v>
       </c>
       <c r="D8" t="n">
-        <v>1.248790469195605</v>
+        <v>1.23873864560599</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -709,6 +755,12 @@
                                             scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
+      <c r="G8" t="n">
+        <v>1.127317944850074</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.985</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -717,13 +769,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>15.49277267495131</v>
+        <v>14.94167941894868</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8147946083240025</v>
+        <v>0.8213825473888408</v>
       </c>
       <c r="D9" t="n">
-        <v>3.264842200283293</v>
+        <v>3.184123592369467</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -744,6 +796,12 @@
                                             scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
+      <c r="G9" t="n">
+        <v>1.127317944850074</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.985</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -752,13 +810,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.535623997710418</v>
+        <v>1.546085115677007</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9954223524263063</v>
+        <v>0.9953911681576642</v>
       </c>
       <c r="D10" t="n">
-        <v>1.001821233815439</v>
+        <v>1.003074388147043</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -779,6 +837,12 @@
                                             scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
+      <c r="G10" t="n">
+        <v>1.127317944850074</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.985</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/predictions/multiple/RandomForestRegressor/Incidencia.xlsx
+++ b/predictions/multiple/RandomForestRegressor/Incidencia.xlsx
@@ -482,13 +482,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.330325824511135</v>
+        <v>1.337244913074909</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7832761913694432</v>
+        <v>0.7821490004225604</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9555549925342113</v>
+        <v>0.9543117962440375</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -506,14 +506,14 @@
                                                         'model__n_estimators': [50,
                                                                                 100,
                                                                                 150]},
-                                            scoring='neg_mean_squared_error'))</t>
+                                            scoring='r2'))</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.127317944850074</v>
+        <v>1.20481028676683</v>
       </c>
       <c r="H2" t="n">
-        <v>0.985</v>
+        <v>0.948</v>
       </c>
     </row>
     <row r="3">
@@ -523,13 +523,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.848323667209031</v>
+        <v>6.880670406412494</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9021662183526097</v>
+        <v>0.9017041193085196</v>
       </c>
       <c r="D3" t="n">
-        <v>1.970736775091027</v>
+        <v>1.967340508561005</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -547,14 +547,14 @@
                                                         'model__n_estimators': [50,
                                                                                 100,
                                                                                 150]},
-                                            scoring='neg_mean_squared_error'))</t>
+                                            scoring='r2'))</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.127317944850074</v>
+        <v>1.20481028676683</v>
       </c>
       <c r="H3" t="n">
-        <v>0.985</v>
+        <v>0.948</v>
       </c>
     </row>
     <row r="4">
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.480567636655565</v>
+        <v>3.496235554331649</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8280740622608915</v>
+        <v>0.8273001306152281</v>
       </c>
       <c r="D4" t="n">
-        <v>1.510404694356846</v>
+        <v>1.528941507905292</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -588,14 +588,14 @@
                                                         'model__n_estimators': [50,
                                                                                 100,
                                                                                 150]},
-                                            scoring='neg_mean_squared_error'))</t>
+                                            scoring='r2'))</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.127317944850074</v>
+        <v>1.20481028676683</v>
       </c>
       <c r="H4" t="n">
-        <v>0.985</v>
+        <v>0.948</v>
       </c>
     </row>
     <row r="5">
@@ -605,13 +605,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.955423048646301</v>
+        <v>2.952484295059423</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9980587558402471</v>
+        <v>0.9980606861352145</v>
       </c>
       <c r="D5" t="n">
-        <v>1.265663291807137</v>
+        <v>1.266941667613774</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -629,14 +629,14 @@
                                                         'model__n_estimators': [50,
                                                                                 100,
                                                                                 150]},
-                                            scoring='neg_mean_squared_error'))</t>
+                                            scoring='r2'))</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.127317944850074</v>
+        <v>1.20481028676683</v>
       </c>
       <c r="H5" t="n">
-        <v>0.985</v>
+        <v>0.948</v>
       </c>
     </row>
     <row r="6">
@@ -646,13 +646,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.112808609028797</v>
+        <v>2.136934204914291</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9769773194256061</v>
+        <v>0.9767144295995399</v>
       </c>
       <c r="D6" t="n">
-        <v>1.154332099098965</v>
+        <v>1.164092936855128</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -670,14 +670,14 @@
                                                         'model__n_estimators': [50,
                                                                                 100,
                                                                                 150]},
-                                            scoring='neg_mean_squared_error'))</t>
+                                            scoring='r2'))</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.127317944850074</v>
+        <v>1.20481028676683</v>
       </c>
       <c r="H6" t="n">
-        <v>0.985</v>
+        <v>0.948</v>
       </c>
     </row>
     <row r="7">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.816420092496004</v>
+        <v>1.778615126366645</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9989815900158616</v>
+        <v>0.9990027860789944</v>
       </c>
       <c r="D7" t="n">
-        <v>1.066839266934659</v>
+        <v>1.04655079897488</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -711,14 +711,14 @@
                                                         'model__n_estimators': [50,
                                                                                 100,
                                                                                 150]},
-                                            scoring='neg_mean_squared_error'))</t>
+                                            scoring='r2'))</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.127317944850074</v>
+        <v>1.20481028676683</v>
       </c>
       <c r="H7" t="n">
-        <v>0.985</v>
+        <v>0.948</v>
       </c>
     </row>
     <row r="8">
@@ -728,13 +728,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.228590673907531</v>
+        <v>2.266128744589349</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9974472535085364</v>
+        <v>0.9974042554024457</v>
       </c>
       <c r="D8" t="n">
-        <v>1.23873864560599</v>
+        <v>1.244823005543465</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -752,14 +752,14 @@
                                                         'model__n_estimators': [50,
                                                                                 100,
                                                                                 150]},
-                                            scoring='neg_mean_squared_error'))</t>
+                                            scoring='r2'))</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.127317944850074</v>
+        <v>1.20481028676683</v>
       </c>
       <c r="H8" t="n">
-        <v>0.985</v>
+        <v>0.948</v>
       </c>
     </row>
     <row r="9">
@@ -769,13 +769,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>14.94167941894868</v>
+        <v>16.01875756986004</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8213825473888408</v>
+        <v>0.8085068223659262</v>
       </c>
       <c r="D9" t="n">
-        <v>3.184123592369467</v>
+        <v>3.307149938986231</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -793,14 +793,14 @@
                                                         'model__n_estimators': [50,
                                                                                 100,
                                                                                 150]},
-                                            scoring='neg_mean_squared_error'))</t>
+                                            scoring='r2'))</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.127317944850074</v>
+        <v>1.20481028676683</v>
       </c>
       <c r="H9" t="n">
-        <v>0.985</v>
+        <v>0.948</v>
       </c>
     </row>
     <row r="10">
@@ -810,13 +810,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.546085115677007</v>
+        <v>1.546252158388737</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9953911681576642</v>
+        <v>0.9953906702085143</v>
       </c>
       <c r="D10" t="n">
-        <v>1.003074388147043</v>
+        <v>1.001682256458476</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -834,14 +834,14 @@
                                                         'model__n_estimators': [50,
                                                                                 100,
                                                                                 150]},
-                                            scoring='neg_mean_squared_error'))</t>
+                                            scoring='r2'))</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.127317944850074</v>
+        <v>1.20481028676683</v>
       </c>
       <c r="H10" t="n">
-        <v>0.985</v>
+        <v>0.948</v>
       </c>
     </row>
   </sheetData>

--- a/predictions/multiple/RandomForestRegressor/Incidencia.xlsx
+++ b/predictions/multiple/RandomForestRegressor/Incidencia.xlsx
@@ -482,13 +482,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.337244913074909</v>
+        <v>1.3396209048899</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7821490004225604</v>
+        <v>0.7817619268305633</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9543117962440375</v>
+        <v>0.9554726193415759</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -510,10 +510,10 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.20481028676683</v>
+        <v>1.099153532933269</v>
       </c>
       <c r="H2" t="n">
-        <v>0.948</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="3">
@@ -523,13 +523,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.880670406412494</v>
+        <v>6.893910660182505</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9017041193085196</v>
+        <v>0.9015149716923674</v>
       </c>
       <c r="D3" t="n">
-        <v>1.967340508561005</v>
+        <v>1.960136467179636</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.20481028676683</v>
+        <v>1.099153532933269</v>
       </c>
       <c r="H3" t="n">
-        <v>0.948</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="4">
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.496235554331649</v>
+        <v>3.642976410215606</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8273001306152281</v>
+        <v>0.8200517269391167</v>
       </c>
       <c r="D4" t="n">
-        <v>1.528941507905292</v>
+        <v>1.538269377134317</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -592,10 +592,10 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.20481028676683</v>
+        <v>1.099153532933269</v>
       </c>
       <c r="H4" t="n">
-        <v>0.948</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="5">
@@ -605,13 +605,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.952484295059423</v>
+        <v>2.997774918752558</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9980606861352145</v>
+        <v>0.998030937379355</v>
       </c>
       <c r="D5" t="n">
-        <v>1.266941667613774</v>
+        <v>1.260670400900648</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -633,10 +633,10 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.20481028676683</v>
+        <v>1.099153532933269</v>
       </c>
       <c r="H5" t="n">
-        <v>0.948</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="6">
@@ -646,13 +646,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.136934204914291</v>
+        <v>2.103375112193536</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9767144295995399</v>
+        <v>0.9770801135847219</v>
       </c>
       <c r="D6" t="n">
-        <v>1.164092936855128</v>
+        <v>1.152925594936625</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.20481028676683</v>
+        <v>1.099153532933269</v>
       </c>
       <c r="H6" t="n">
-        <v>0.948</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="7">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.778615126366645</v>
+        <v>1.782945229375743</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9990027860789944</v>
+        <v>0.9990003583255496</v>
       </c>
       <c r="D7" t="n">
-        <v>1.04655079897488</v>
+        <v>1.050046863520349</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -715,10 +715,10 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.20481028676683</v>
+        <v>1.099153532933269</v>
       </c>
       <c r="H7" t="n">
-        <v>0.948</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="8">
@@ -728,13 +728,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.266128744589349</v>
+        <v>2.200748730901851</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9974042554024457</v>
+        <v>0.9974791451534021</v>
       </c>
       <c r="D8" t="n">
-        <v>1.244823005543465</v>
+        <v>1.232858037995043</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -756,10 +756,10 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.20481028676683</v>
+        <v>1.099153532933269</v>
       </c>
       <c r="H8" t="n">
-        <v>0.948</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="9">
@@ -769,13 +769,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>16.01875756986004</v>
+        <v>15.54654381901065</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8085068223659262</v>
+        <v>0.8141518114531443</v>
       </c>
       <c r="D9" t="n">
-        <v>3.307149938986231</v>
+        <v>3.250987742369093</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -797,10 +797,10 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.20481028676683</v>
+        <v>1.099153532933269</v>
       </c>
       <c r="H9" t="n">
-        <v>0.948</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="10">
@@ -810,13 +810,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.546252158388737</v>
+        <v>1.562861492608981</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9953906702085143</v>
+        <v>0.9953411582976511</v>
       </c>
       <c r="D10" t="n">
-        <v>1.001682256458476</v>
+        <v>1.008048432933262</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -838,10 +838,10 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.20481028676683</v>
+        <v>1.099153532933269</v>
       </c>
       <c r="H10" t="n">
-        <v>0.948</v>
+        <v>0.998</v>
       </c>
     </row>
   </sheetData>
